--- a/kicad/BOM_FILE/Securityfest_2019_badge_beta_BOM.xlsx
+++ b/kicad/BOM_FILE/Securityfest_2019_badge_beta_BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bewniac/git/securityfest_badge/kicad/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bewniac/git/bewniac/securityfest-badge-2019/kicad/BOM_FILE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D9C8EE-06A8-D941-A49B-123A1D3ABAF9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DABF25-A288-A543-8411-AD8E14B47FE6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -184,9 +184,6 @@
     <t>R2, R3, R7</t>
   </si>
   <si>
-    <t>ESP-12S</t>
-  </si>
-  <si>
     <t>https://item.taobao.com/item.htm?spm=a1z10.1-c.w13620763-16127750685.31.zje769&amp;id=543467904788</t>
   </si>
   <si>
@@ -194,6 +191,9 @@
   </si>
   <si>
     <t>https://www.digikey.ca/product-detail/en/jst-sales-america-inc/S2B-PH-SM4-TB-LF-SN/455-1749-1-ND/926846</t>
+  </si>
+  <si>
+    <t>esp-12s</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1050,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1135,13 +1135,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1219,13 +1219,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">

--- a/kicad/BOM_FILE/Securityfest_2019_badge_beta_BOM.xlsx
+++ b/kicad/BOM_FILE/Securityfest_2019_badge_beta_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bewniac/git/bewniac/securityfest-badge-2019/kicad/BOM_FILE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DABF25-A288-A543-8411-AD8E14B47FE6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154A4254-1E3D-AF40-B20F-A85660F0C195}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="460" windowWidth="36900" windowHeight="22160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Securityfest_2019_badge_beta_BO" sheetId="1" r:id="rId1"/>
@@ -73,9 +73,6 @@
     <t>R1, R5</t>
   </si>
   <si>
-    <t>R8, R9, R10, R11, R13, R14, R15, R16</t>
-  </si>
-  <si>
     <t>D3, D4, D5, D6</t>
   </si>
   <si>
@@ -85,9 +82,6 @@
     <t>S1, S2</t>
   </si>
   <si>
-    <t>R4, R12</t>
-  </si>
-  <si>
     <t>SW1, SW2, SW3</t>
   </si>
   <si>
@@ -194,6 +188,12 @@
   </si>
   <si>
     <t>esp-12s</t>
+  </si>
+  <si>
+    <t>R8, R9, R10, R11, R13, R15, R16</t>
+  </si>
+  <si>
+    <t>R4, R12, R14</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1050,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1071,7 +1071,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1079,13 +1079,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1099,21 +1099,21 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1121,13 +1121,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1135,13 +1135,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1149,13 +1149,13 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1163,13 +1163,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1177,32 +1177,32 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -1211,7 +1211,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1219,41 +1219,41 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1261,13 +1261,13 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1275,41 +1275,41 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C17">
         <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18">
         <v>4</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1323,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1343,6 +1343,7 @@
     <hyperlink ref="D11" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="D13" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="D19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D14" r:id="rId16" xr:uid="{5F9A2536-F31E-2641-A12E-0667BFE21ACE}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
